--- a/1 etim ds 2022/EAMT/Trabalho Acadêmico/Relatório (a importância dos ecopontos)/A importância da separação dos recicláveis 3/Ecoponto.xlsx
+++ b/1 etim ds 2022/EAMT/Trabalho Acadêmico/Relatório (a importância dos ecopontos)/A importância da separação dos recicláveis 3/Ecoponto.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETEC-Coisas-Escolares\1 etim ds 2022\EAMT\Trabalho Acadêmico\Relatório (a importância dos ecopontos)\A importância da separação dos recicláveis 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE301F19-93BC-4CEE-8534-9C9F75AC9651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC33ED0D-17B7-41D0-83E8-507B6635C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{E5532AD1-8BB6-4D38-9CC6-90F25544F6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,19 +38,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
-    <t xml:space="preserve">Materiais </t>
+    <t>Ecoponto</t>
   </si>
   <si>
     <t>Datas</t>
   </si>
   <si>
+    <t xml:space="preserve">Materiais </t>
+  </si>
+  <si>
     <t xml:space="preserve">Alumíno (Kg) </t>
+  </si>
+  <si>
+    <t>Pet (Kg)</t>
   </si>
   <si>
     <t>Plástico Misto (Kg)</t>
   </si>
   <si>
+    <t>Plástico Fino (Kg)</t>
+  </si>
+  <si>
+    <t>Plástico Seco (Kg)</t>
+  </si>
+  <si>
     <t>Papelão (Kg)</t>
+  </si>
+  <si>
+    <t>Material de Limpeza (Kg)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Preço</t>
@@ -58,25 +77,10 @@
     <t xml:space="preserve">Alumíno (R$) </t>
   </si>
   <si>
-    <t>Plástico Misto (R$)</t>
+    <t>Pet (R$)</t>
   </si>
   <si>
-    <t>Papelão (R$)</t>
-  </si>
-  <si>
-    <t>Pet (Kg)</t>
-  </si>
-  <si>
-    <t>Plástico Fino (Kg)</t>
-  </si>
-  <si>
-    <t>Plástico Seco (Kg)</t>
-  </si>
-  <si>
-    <t>Material de Limpeza (Kg)</t>
-  </si>
-  <si>
-    <t>Pet (R$)</t>
+    <t>Plástico Misto (R$)</t>
   </si>
   <si>
     <t>Plástico Fino (R$)</t>
@@ -85,16 +89,13 @@
     <t>Plástico Seco (R$)</t>
   </si>
   <si>
+    <t>Papelão (R$)</t>
+  </si>
+  <si>
     <t>Material de Limpeza (R$)</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Ecoponto</t>
   </si>
 </sst>
 </file>
@@ -103,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,9 +247,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -278,7 +276,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,12 +292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -358,7 +356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -541,7 +539,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -572,7 +570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208830224"/>
@@ -668,7 +666,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -699,7 +697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="197973760"/>
@@ -740,7 +738,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -780,7 +778,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -805,6 +803,35 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -826,7 +853,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SubTotalidade</c:v>
+            <c:v>Subtotalidade</c:v>
           </c:tx>
           <c:spPr>
             <a:noFill/>
@@ -907,78 +934,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-95E8-482D-B107-70F1FD8239F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Total</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$B$11:$H$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Alumíno (R$) </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pet (R$)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Plástico Misto (R$)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Plástico Fino (R$)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Plástico Seco (R$)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Papelão (R$)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Material de Limpeza (R$)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#.##000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>492.79999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C202-4301-9AD2-EAB96DEE25BD}"/>
+              <c16:uniqueId val="{00000001-E714-4147-8FE2-FC7A58A9F031}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1055,7 +1011,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1086,7 +1042,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208830224"/>
@@ -1178,7 +1134,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1209,7 +1165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="197973760"/>
@@ -1250,7 +1206,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1290,12 +1246,300 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>492.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C98-4185-87F0-9B3CBC193CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2069791847"/>
+        <c:axId val="147537287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2069791847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="147537287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="147537287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2069791847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1381,6 +1625,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
@@ -2475,6 +2759,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2537,6 +3324,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570F253B-36CF-4A8E-91DE-42F29D277473}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DCD6E95B-8F65-424C-8BE8-DDC9FFD52B2D}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
@@ -2555,11 +3345,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EF9F22-6602-B93D-D525-7915C1894E06}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{570F253B-36CF-4A8E-91DE-42F29D277473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2858,67 +3687,67 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+    <row r="1" spans="1:14">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:14" ht="30">
+      <c r="A3" s="20"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>44652</v>
       </c>
@@ -2947,7 +3776,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="6">
         <v>44699</v>
       </c>
@@ -2973,178 +3802,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="6">
         <v>44734</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>8</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>1.5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>20</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>90</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="6">
         <v>44764</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>26.5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>11</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>102.5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="6">
         <v>44841</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>37</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>112</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
         <f>SUM(B4:B8)</f>
         <v>37.5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <f t="shared" ref="C9:H9" si="0">SUM(C4:C8)</f>
         <v>26.5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>462</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+    <row r="10" spans="1:14">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="1:14" ht="30">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="G11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8">
+    <row r="12" spans="1:14">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7">
         <v>5.5</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1.6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>0.9</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>0.3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>0.3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -3154,53 +3983,53 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="21">
+        <v>19</v>
+      </c>
+      <c r="B14" s="16">
         <f t="shared" ref="B14:H14" si="1">B12*SUM(B4:B8)</f>
         <v>206.25</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <f t="shared" si="1"/>
         <v>42.400000000000006</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="16">
         <f t="shared" si="1"/>
         <v>78.100000000000009</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="16">
         <f t="shared" si="1"/>
         <v>13.950000000000001</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="16">
         <f t="shared" si="1"/>
         <v>138.6</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="16">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="22">
+    <row r="15" spans="1:14">
+      <c r="A15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18">
         <f>SUM(B14:H14)</f>
         <v>492.79999999999995</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/1 etim ds 2022/EAMT/Trabalho Acadêmico/Relatório (a importância dos ecopontos)/A importância da separação dos recicláveis 3/Ecoponto.xlsx
+++ b/1 etim ds 2022/EAMT/Trabalho Acadêmico/Relatório (a importância dos ecopontos)/A importância da separação dos recicláveis 3/Ecoponto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETEC-Coisas-Escolares\1 etim ds 2022\EAMT\Trabalho Acadêmico\Relatório (a importância dos ecopontos)\A importância da separação dos recicláveis 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC33ED0D-17B7-41D0-83E8-507B6635C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F5ADE-DB73-414A-A716-5251107ECB16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{E5532AD1-8BB6-4D38-9CC6-90F25544F6D8}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -106,7 +106,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,7 +356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -539,7 +539,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -570,7 +570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208830224"/>
@@ -666,7 +666,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -697,7 +697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="197973760"/>
@@ -738,7 +738,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -778,7 +778,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -828,7 +828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1011,7 +1011,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1042,7 +1042,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208830224"/>
@@ -1134,7 +1134,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1165,7 +1165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="197973760"/>
@@ -1206,7 +1206,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1246,300 +1246,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>"R$"#,##0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>492.79999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4C98-4185-87F0-9B3CBC193CC6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2069791847"/>
-        <c:axId val="147537287"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2069791847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="147537287"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="147537287"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;R$&quot;#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2069791847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1625,46 +1337,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
@@ -2759,509 +2431,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3345,50 +2514,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EF9F22-6602-B93D-D525-7915C1894E06}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{570F253B-36CF-4A8E-91DE-42F29D277473}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3686,17 +2816,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8491EAD9-1978-44DB-A882-F1841AA3CC9E}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3708,7 +2838,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -3722,7 +2852,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:14" ht="30">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -3747,7 +2877,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44652</v>
       </c>
@@ -3776,7 +2906,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44699</v>
       </c>
@@ -3802,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44734</v>
       </c>
@@ -3828,7 +2958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44764</v>
       </c>
@@ -3854,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44841</v>
       </c>
@@ -3880,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -3913,7 +3043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="14" t="s">
         <v>11</v>
@@ -3925,7 +3055,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:14" ht="30">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
@@ -3949,7 +3079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="7">
         <v>5.5</v>
@@ -3973,7 +3103,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -3983,7 +3113,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -4016,7 +3146,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>10</v>
       </c>
